--- a/utilities/Excel_Sheets/Products/LTC.xlsx
+++ b/utilities/Excel_Sheets/Products/LTC.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Test_Regressions" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Test_Regressions!$A$1:$N$107</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="111">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -764,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -836,15 +836,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43041</v>
+        <v>43040</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -862,22 +862,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K2" s="3">
-        <v>99801</v>
-      </c>
-      <c r="L2" s="5">
-        <v>5</v>
+        <v>32301</v>
+      </c>
+      <c r="L2" s="3">
+        <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="4">
-        <v>0</v>
+      <c r="N2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -896,15 +896,15 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>43041</v>
+        <v>43040</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -922,22 +922,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="K4" s="3">
-        <v>91436</v>
+        <v>33018</v>
       </c>
       <c r="L4" s="5">
         <v>5</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -1016,15 +1016,15 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
-        <v>43040</v>
+        <v>43041</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1042,40 +1042,25 @@
         <v>5</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="K8" s="3">
-        <v>32301</v>
-      </c>
-      <c r="L8" s="3">
-        <v>6</v>
+        <v>91436</v>
+      </c>
+      <c r="L8" s="5">
+        <v>5</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-    </row>
+        <v>105</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>108</v>
@@ -1120,31 +1105,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6">
-        <v>43040</v>
+        <v>43041</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1162,46 +1132,31 @@
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K12" s="3">
-        <v>33018</v>
+        <v>18901</v>
       </c>
       <c r="L12" s="5">
         <v>5</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6">
         <v>43041</v>
@@ -1222,19 +1177,19 @@
         <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K14" s="3">
-        <v>33009</v>
+        <v>99801</v>
       </c>
       <c r="L14" s="5">
         <v>5</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14" s="4">
         <v>0</v>
@@ -1258,7 +1213,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -1282,13 +1237,13 @@
         <v>5</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>79</v>
       </c>
       <c r="K16" s="3">
-        <v>33402</v>
+        <v>33009</v>
       </c>
       <c r="L16" s="5">
         <v>5</v>
@@ -1316,12 +1271,12 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6">
         <v>43041</v>
@@ -1342,25 +1297,25 @@
         <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K18" s="3">
-        <v>19019</v>
+        <v>33402</v>
       </c>
       <c r="L18" s="5">
         <v>5</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1376,9 +1331,9 @@
       <c r="M19"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -1402,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K20" s="3">
-        <v>18901</v>
+        <v>19019</v>
       </c>
       <c r="L20" s="5">
         <v>5</v>
@@ -1420,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1438,7 +1393,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
@@ -1462,13 +1417,13 @@
         <v>5</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K22" s="3">
-        <v>19380</v>
+        <v>18901</v>
       </c>
       <c r="L22" s="5">
         <v>5</v>
@@ -1498,7 +1453,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
@@ -1522,13 +1477,13 @@
         <v>5</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K24" s="3">
-        <v>19063</v>
+        <v>19380</v>
       </c>
       <c r="L24" s="5">
         <v>5</v>
@@ -1558,7 +1513,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -1582,13 +1537,13 @@
         <v>5</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K26" s="3">
-        <v>18054</v>
+        <v>19063</v>
       </c>
       <c r="L26" s="5">
         <v>5</v>
@@ -1616,21 +1571,49 @@
       <c r="M27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43041</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="3">
+        <v>18054</v>
+      </c>
+      <c r="L28" s="5">
+        <v>5</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A29"/>
@@ -1760,8 +1743,40 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N36"/>
+  <autoFilter ref="A1:N38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
